--- a/Exhibits/Create Exhibit Badge Setup/Main.rvl.xlsx
+++ b/Exhibits/Create Exhibit Badge Setup/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="130">
   <si>
     <t>Flow</t>
   </si>
@@ -358,6 +358,51 @@
   </si>
   <si>
     <t>ux_SaveandClose</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>***Test creates the Exhibit Product Setup from the ExhibitData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the Exhibit Product Setup to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Exhibit Product is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the Exhibit Product Setup.</t>
+  </si>
+  <si>
+    <t>*******TUXr Exhibit must already be created before running this test.</t>
+  </si>
+  <si>
+    <t>***Test creates the Exhibit Badge Setup.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the Exhibit Badge Setup to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Exhibit Badge is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the Exhibit Badge Setup.</t>
+  </si>
+  <si>
+    <t>UX_Grid</t>
+  </si>
+  <si>
+    <t>Open TUXr Exhibit.</t>
+  </si>
+  <si>
+    <t>Exhibit Badge Setup not found. Create new exhibit badge setup for testing.</t>
   </si>
 </sst>
 </file>
@@ -378,7 +423,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="225">
+  <borders count="239">
     <border>
       <left/>
       <right/>
@@ -610,11 +655,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -840,6 +899,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="222" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="223" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="224" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="225" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="226" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="227" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="228" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="229" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="230" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="231" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="232" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="233" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="234" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="235" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="236" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="237" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="238" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,7 +922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H67"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -916,266 +989,239 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="174"/>
+      <c r="A4" s="227"/>
     </row>
     <row r="5">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="225"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="174"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="172"/>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="8">
+      <c r="A8" s="172"/>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="171"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="170" t="s">
+    <row r="9">
+      <c r="A9" s="228"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="233"/>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="232"/>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="231"/>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="230"/>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="229"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="171"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="169"/>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="17">
+      <c r="A17" s="169"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="168"/>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="168"/>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E18" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="167"/>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="166"/>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="165"/>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="164"/>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="163"/>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="162"/>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="161"/>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="178"/>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="19">
-      <c r="A19" s="191"/>
+      <c r="A19" s="167"/>
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -1183,643 +1229,799 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="166"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>31</v>
       </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="165"/>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="164"/>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D22" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E22" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G22" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="52" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" s="163"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E23" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="56"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="180"/>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="199"/>
+      <c r="A24" s="162"/>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="186" t="s">
-        <v>64</v>
-      </c>
+      <c r="A25" s="161"/>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="178"/>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="191"/>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="56"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="180"/>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="199"/>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="186" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
         <v>65</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F33" t="s">
         <v>19</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="185"/>
-      <c r="B26" t="s">
+    <row r="34">
+      <c r="A34" s="185"/>
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="184"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="183" t="s">
+    <row r="35">
+      <c r="A35" s="184"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="182"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="181" t="s">
+    <row r="37">
+      <c r="A37" s="182"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="187"/>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="39">
+      <c r="A39" s="187"/>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
         <v>25</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D39" t="s">
         <v>26</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E39" t="s">
         <v>27</v>
       </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="65"/>
-      <c r="B32" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="67" t="s">
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="65"/>
+      <c r="B40" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D40" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="69" t="s">
+      <c r="E40" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="71" t="s">
+      <c r="F40" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="72"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="73"/>
-      <c r="B33" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="75" t="s">
+      <c r="H40" s="72"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="73"/>
+      <c r="B41" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="76" t="s">
+      <c r="D41" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="77" t="s">
+      <c r="E41" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="78" t="s">
+      <c r="F41" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="79" t="s">
+      <c r="G41" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="80"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="81"/>
-      <c r="B34" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="83" t="s">
+      <c r="H41" s="80"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="81"/>
+      <c r="B42" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="84" t="s">
+      <c r="D42" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="85" t="s">
+      <c r="E42" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="86" t="s">
+      <c r="F42" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="G42" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="88"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="188"/>
-      <c r="B35" t="s">
+      <c r="H42" s="88"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="188"/>
+      <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E43" t="s">
         <v>39</v>
       </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="190"/>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="44">
+      <c r="A44" s="190"/>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
         <v>29</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D44" t="s">
         <v>82</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E44" t="s">
         <v>83</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F44" t="s">
         <v>22</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="189"/>
-      <c r="B37" t="s">
+    <row r="45">
+      <c r="A45" s="189"/>
+      <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E45" t="s">
         <v>39</v>
       </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="206"/>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="46">
+      <c r="A46" s="206"/>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
         <v>29</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D46" t="s">
         <v>82</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E46" t="s">
         <v>83</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F46" t="s">
         <v>22</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G46" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="205"/>
-      <c r="B39" t="s">
+    <row r="47">
+      <c r="A47" s="205"/>
+      <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E47" t="s">
         <v>39</v>
       </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="208"/>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="48">
+      <c r="A48" s="208"/>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
         <v>29</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D48" t="s">
         <v>82</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E48" t="s">
         <v>83</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F48" t="s">
         <v>22</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G48" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="207"/>
-      <c r="B41" t="s">
+    <row r="49">
+      <c r="A49" s="207"/>
+      <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E49" t="s">
         <v>39</v>
       </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="216"/>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="50">
+      <c r="A50" s="216"/>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
         <v>29</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D50" t="s">
         <v>114</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E50" t="s">
         <v>7</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F50" t="s">
         <v>7</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="213" t="s">
+    <row r="51">
+      <c r="A51" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C51" t="s">
         <v>7</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D51" t="s">
         <v>7</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E51" t="s">
         <v>7</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F51" t="s">
         <v>7</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="97"/>
-      <c r="B44" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="99" t="s">
+    <row r="52">
+      <c r="A52" s="97"/>
+      <c r="B52" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="100" t="s">
+      <c r="D52" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="101" t="s">
+      <c r="E52" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="103" t="s">
+      <c r="F52" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="H44" s="104"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="195"/>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="H52" s="104"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="195"/>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
         <v>29</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D53" t="s">
         <v>56</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E53" t="s">
         <v>31</v>
       </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="198"/>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
+    <row r="54">
+      <c r="A54" s="198"/>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D54" t="s">
         <v>41</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E54" t="s">
         <v>42</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F54" t="s">
         <v>43</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="193"/>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" t="s">
+    <row r="55">
+      <c r="A55" s="193"/>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" t="s">
         <v>61</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E55" t="s">
         <v>47</v>
       </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="197"/>
-      <c r="B48" t="s">
+    <row r="56">
+      <c r="A56" s="197"/>
+      <c r="B56" t="s">
         <v>11</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E56" t="s">
         <v>49</v>
       </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="105" t="s">
+    <row r="57">
+      <c r="A57" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="106" t="s">
+      <c r="B57" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="109" t="s">
+      <c r="C57" s="107"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="111" t="s">
+      <c r="F57" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="H49" s="112"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="113"/>
-      <c r="B50" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="115" t="s">
+      <c r="H57" s="112"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="113"/>
+      <c r="B58" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="116" t="s">
+      <c r="D58" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="117" t="s">
+      <c r="E58" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="118" t="s">
+      <c r="F58" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="119" t="s">
+      <c r="G58" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="120"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="121"/>
-      <c r="B51" s="122" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="123" t="s">
+      <c r="H58" s="120"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="121"/>
+      <c r="B59" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="124" t="s">
+      <c r="D59" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="E51" s="125" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="126" t="s">
+      <c r="E59" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="H51" s="128"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="202"/>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="G59" s="127" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="203"/>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="129"/>
-      <c r="B54" s="130"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="134"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="136"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="137" t="s">
+      <c r="H59" s="128"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="129"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="135"/>
+      <c r="H60" s="136"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="138"/>
-      <c r="C55" s="139"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="141"/>
-      <c r="F55" s="142"/>
-      <c r="G55" s="143"/>
-      <c r="H55" s="144"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="145"/>
-      <c r="B56" s="146"/>
-      <c r="C56" s="147"/>
-      <c r="D56" s="148"/>
-      <c r="E56" s="149"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="152"/>
+      <c r="B61" s="138"/>
+      <c r="C61" s="139"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="141"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="143"/>
+      <c r="H61" s="144"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="145"/>
+      <c r="B62" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="148" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="151" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62" s="152"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="234"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="235"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="236"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="237"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="238"/>
     </row>
   </sheetData>
 </worksheet>
